--- a/biology/Zoologie/Anthene_definita/Anthene_definita.xlsx
+++ b/biology/Zoologie/Anthene_definita/Anthene_definita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthene definita est une espèce de lépidoptères (papillons) de la famille des Lycaenidae. 
 On la trouve dans plusieurs territoires dans l'Est de l'Afrique australe. 
-Elle habite la savane, le fynbos, le Karoo ainsi que les lisières de forêts et les jardins périurbains[1]. 
+Elle habite la savane, le fynbos, le Karoo ainsi que les lisières de forêts et les jardins périurbains. 
 L'envergure est de 21 à 27 mm pour les mâles et de 24 à 29 mm pour les femelles. 
-Les adultes volent toute l'année, sauf en hiver dans les régions les plus froides[1].
-La chenille se nourrit de Mangifera indica et d'Acacia karroo notamment[1].
+Les adultes volent toute l'année, sauf en hiver dans les régions les plus froides.
+La chenille se nourrit de Mangifera indica et d'Acacia karroo notamment.
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (6 février 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (6 février 2020) :
 Anthene definita definita (Butler, 1899)
 Anthene definita nigrocaudata (Pagenstecher, 1902)</t>
         </is>
